--- a/New climate data.xlsx
+++ b/New climate data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28040" windowHeight="11680"/>
+    <workbookView windowWidth="29400" windowHeight="11700"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="57">
   <si>
     <t>MMWR Year</t>
   </si>
@@ -41,7 +41,7 @@
     <t>TAVG</t>
   </si>
   <si>
-    <t xml:space="preserve">PRCP </t>
+    <t>PRCP</t>
   </si>
   <si>
     <t>TAVG = average temperature (°F)</t>
@@ -198,6 +198,9 @@
   </si>
   <si>
     <t>WYOMING</t>
+  </si>
+  <si>
+    <t>US</t>
   </si>
 </sst>
 </file>
@@ -1372,10 +1375,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G451"/>
+  <dimension ref="A1:G460"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="6"/>
@@ -7919,6 +7922,132 @@
         <v>1.20583333333333</v>
       </c>
     </row>
+    <row r="452" spans="1:4">
+      <c r="A452">
+        <v>2014</v>
+      </c>
+      <c r="B452" t="s">
+        <v>56</v>
+      </c>
+      <c r="C452">
+        <v>52.5283333333333</v>
+      </c>
+      <c r="D452">
+        <v>2.5675</v>
+      </c>
+    </row>
+    <row r="453" spans="1:4">
+      <c r="A453">
+        <v>2015</v>
+      </c>
+      <c r="B453" t="s">
+        <v>56</v>
+      </c>
+      <c r="C453">
+        <v>54.3825</v>
+      </c>
+      <c r="D453">
+        <v>2.88166666666667</v>
+      </c>
+    </row>
+    <row r="454" spans="1:4">
+      <c r="A454">
+        <v>2016</v>
+      </c>
+      <c r="B454" t="s">
+        <v>56</v>
+      </c>
+      <c r="C454">
+        <v>54.9016666666667</v>
+      </c>
+      <c r="D454">
+        <v>2.6175</v>
+      </c>
+    </row>
+    <row r="455" spans="1:4">
+      <c r="A455">
+        <v>2017</v>
+      </c>
+      <c r="B455" t="s">
+        <v>56</v>
+      </c>
+      <c r="C455">
+        <v>54.5383333333333</v>
+      </c>
+      <c r="D455">
+        <v>2.69083333333333</v>
+      </c>
+    </row>
+    <row r="456" spans="1:4">
+      <c r="A456">
+        <v>2018</v>
+      </c>
+      <c r="B456" t="s">
+        <v>56</v>
+      </c>
+      <c r="C456">
+        <v>53.5083333333333</v>
+      </c>
+      <c r="D456">
+        <v>2.885</v>
+      </c>
+    </row>
+    <row r="457" spans="1:4">
+      <c r="A457">
+        <v>2019</v>
+      </c>
+      <c r="B457" t="s">
+        <v>56</v>
+      </c>
+      <c r="C457">
+        <v>52.6641666666667</v>
+      </c>
+      <c r="D457">
+        <v>2.90166666666667</v>
+      </c>
+    </row>
+    <row r="458" spans="1:4">
+      <c r="A458">
+        <v>2020</v>
+      </c>
+      <c r="B458" t="s">
+        <v>56</v>
+      </c>
+      <c r="C458">
+        <v>54.3575</v>
+      </c>
+      <c r="D458">
+        <v>2.53166666666667</v>
+      </c>
+    </row>
+    <row r="459" spans="1:4">
+      <c r="A459">
+        <v>2021</v>
+      </c>
+      <c r="B459" t="s">
+        <v>56</v>
+      </c>
+      <c r="C459">
+        <v>53.3791666666667</v>
+      </c>
+      <c r="D459">
+        <v>2.37083333333333</v>
+      </c>
+    </row>
+    <row r="460" spans="1:4">
+      <c r="A460">
+        <v>2022</v>
+      </c>
+      <c r="B460" t="s">
+        <v>56</v>
+      </c>
+      <c r="C460">
+        <v>54.2125</v>
+      </c>
+      <c r="D460">
+        <v>2.49666666666667</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
